--- a/Documentation/TimeSheets/week8/Huy Nguyen Week 8 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week8/Huy Nguyen Week 8 Timesheet .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -713,7 +713,7 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="2" customWidth="1"/>
     <col min="3" max="5" width="20.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
